--- a/report/603288海天味业/603288.xlsx
+++ b/report/603288海天味业/603288.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/603288海天味业/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/report/603288海天味业/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6DCA50-34B7-3940-A7AD-44A653B4C876}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F1D209-D0D9-8344-B9C3-438FF8E265BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-12520" windowWidth="51200" windowHeight="28340" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="21520" yWindow="460" windowWidth="50080" windowHeight="28340" activeTab="1" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -349,10 +350,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>收入!$A$3:$A$7</c:f>
+              <c:f>收入!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -367,16 +368,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收入!$B$3:$B$7</c:f>
+              <c:f>收入!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -391,6 +395,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>145.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,10 +449,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>收入!$A$3:$A$7</c:f>
+              <c:f>收入!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -460,16 +467,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收入!$D$3:$D$7</c:f>
+              <c:f>收入!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>51.1</c:v>
                 </c:pt>
@@ -484,6 +494,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,10 +548,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>收入!$A$3:$A$7</c:f>
+              <c:f>收入!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -553,16 +566,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收入!$F$3:$F$7</c:f>
+              <c:f>收入!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>16.100000000000001</c:v>
                 </c:pt>
@@ -577,6 +593,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,6 +1029,9 @@
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0">
                   <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>43.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,6 +1481,9 @@
                 </c:pt>
                 <c:pt idx="14" formatCode="0.000">
                   <c:v>0.32700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.000">
+                  <c:v>0.45679999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576BF4A-84D9-4F42-AC28-2084AB25FD8F}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3928,12 +3953,41 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19">
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8">
+        <v>170.34</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D8">
+        <v>91.19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.151</v>
+      </c>
+      <c r="F8">
+        <v>43.65</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H8">
+        <v>1.62</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -3944,7 +3998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
@@ -3955,7 +4009,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="11" t="s">
         <v>12</v>
       </c>
@@ -3966,7 +4020,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="11" t="s">
         <v>13</v>
       </c>
@@ -3977,7 +4031,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="11" t="s">
         <v>14</v>
       </c>
@@ -3988,7 +4042,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -3998,8 +4052,12 @@
       <c r="C27">
         <v>0.29899999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="2">
+        <f>B27/B23-1</f>
+        <v>7.2100313479623868E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -4009,8 +4067,12 @@
       <c r="C28">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D38" si="0">B28/B24-1</f>
+        <v>0.11836734693877538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -4020,8 +4082,12 @@
       <c r="C29">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="11" t="s">
         <v>27</v>
       </c>
@@ -4031,8 +4097,12 @@
       <c r="C30">
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10410094637223977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="11" t="s">
         <v>24</v>
       </c>
@@ -4042,8 +4112,12 @@
       <c r="C31">
         <v>0.36099999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17251461988304095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -4053,8 +4127,12 @@
       <c r="C32">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25182481751824803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="11" t="s">
         <v>29</v>
       </c>
@@ -4064,8 +4142,12 @@
       <c r="C33">
         <v>0.26500000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
         <v>30</v>
       </c>
@@ -4075,8 +4157,12 @@
       <c r="C34">
         <v>0.36699999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8571428571428505E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
         <v>31</v>
       </c>
@@ -4086,8 +4172,12 @@
       <c r="C35" s="5">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16957605985037394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
@@ -4097,8 +4187,12 @@
       <c r="C36" s="5">
         <v>0.38700000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17492711370262382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="11" t="s">
         <v>33</v>
       </c>
@@ -4108,27 +4202,39 @@
       <c r="C37" s="5">
         <v>0.32700000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17008797653958929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B38" s="6">
+        <v>43.23</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15588235294117636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="C42" s="5"/>
     </row>
   </sheetData>
@@ -4141,8 +4247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F802DA02-89C9-6543-A9F0-11329708A39B}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4262,8 +4368,27 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.308</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>14.16</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.4</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
